--- a/biology/Médecine/L'Enfant_de_l'absente/L'Enfant_de_l'absente.xlsx
+++ b/biology/Médecine/L'Enfant_de_l'absente/L'Enfant_de_l'absente.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Enfant_de_l%27absente</t>
+          <t>L'Enfant_de_l'absente</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Enfant de l'absente est un roman de Thierry Jonquet, illustré par Jacques Tardi et postfacé par le scientifique Jacques Testart. Il a été publié pour la première fois en mars 1994. Il dénonce certaines pratiques médicales extrêmes. 
 Ce roman a été adapté par la série télévisée "Florence Larrieu, le juge est une femme", en 1995 (saison 2, épisode 2), avec Florence Pernel, Frédéric Diefenthal et Jacques Perrin.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Enfant_de_l%27absente</t>
+          <t>L'Enfant_de_l'absente</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé de l'histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une jeune immigrée africaine, victime d'un accident, plonge dans un coma profond. Elle est enceinte de cinq mois et le chef de la clinique où elle est transportée décide de la maintenir en vie artificiellement pour mettre l'enfant au monde. Comme elle n'a pas de papiers, la police ne retrouve que tardivement sa famille en Afrique. C'est son oncle, considéré comme un sage au village, qui va venir tenter de récupérer le corps de la jeune femme et, du même coup, arrêter l'expérience. Mais son combat est loin d'être gagné.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Enfant_de_l%27absente</t>
+          <t>L'Enfant_de_l'absente</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Loene Bokosola : jeune immigrée africaine, enceinte, et renversée par un autobus. Elle arrive en urgence à la clinique du docteur Lapouge.
 Veyrier : Inspecteur consciencieux, marié à Suzanna, ayant deux enfants. Il tente de retrouver la famille de la jeune femme accidentée.
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%27Enfant_de_l%27absente</t>
+          <t>L'Enfant_de_l'absente</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Analyse</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce roman dénonce une certaine folie de la science dans sa volonté de repousser les limites naturelles. Thierry Jonquet y confronte deux conceptions de la vie et de la mort opposant la science à la morale.
 Ainsi le point de vue  d’Alassane, oncle de Loene, et celui du Professeur  Lapouge s’opposent violemment. Pour Lapouge, Loene n’est pas morte, elle vit grâce à la machine, son enfant vit aussi : Lapouge veut vaincre la mort à tout prix. Par contre, pour Alassane Loene est morte et son enfant aussi : Alassane veut obéir à la nature et respecter la mort. Leurs visions de la vie et de la mort mais aussi du bien et du mal sont tout à fait différentes. 
